--- a/study_guides/midterm_1_review/pipeline_2-wide-superscalar_answer.xlsx
+++ b/study_guides/midterm_1_review/pipeline_2-wide-superscalar_answer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\study_guides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\study_guides\midterm_1_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DFF3E-EBFB-4458-8627-A743ECA9E6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DA5C6-7C31-467A-95C5-3B6847611170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="1110" windowWidth="19650" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="285" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Assume split instruction and data memory, full data forwarding, and perfect branch prediction (with both BHT and BTB).</t>
   </si>
   <si>
-    <t>Assume initially s0 is renamed to p10 and s1 is renamed to p11 and that both operands are ready.  Other operands are not ready.</t>
-  </si>
-  <si>
     <t>This is the code:</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>* All instructions have already been dispatched so there will only be EX, MEM, WB stages (no IF or ID).</t>
+  </si>
+  <si>
+    <t>Assume initially s0 is renamed to p10 and t1 is renamed to p11 and that both operands are ready.  Other operands are not ready.</t>
   </si>
 </sst>
 </file>
@@ -164,10 +164,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +452,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:Z25"/>
+      <selection activeCell="A4" sqref="A4:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,124 +462,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -641,236 +641,236 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1166,74 +1166,74 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A25:Z25"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:Z2"/>
     <mergeCell ref="A14:Z14"/>
     <mergeCell ref="A24:Z24"/>
     <mergeCell ref="A3:Z3"/>
     <mergeCell ref="A4:Z4"/>
-    <mergeCell ref="A25:Z25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
